--- a/src/main/resources/keywords/snj-mars-keywords.xlsx
+++ b/src/main/resources/keywords/snj-mars-keywords.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="782">
   <si>
     <t>Keywords</t>
   </si>
@@ -2354,6 +2354,24 @@
   </si>
   <si>
     <t>Perform HTTP Patch request with direct body data with token</t>
+  </si>
+  <si>
+    <t>writeToPropertiesFile(String filePath, String keyName, String value)</t>
+  </si>
+  <si>
+    <t>Method to write new key and value to the properties file</t>
+  </si>
+  <si>
+    <t>waitForAllElementsLoaded(WebDriver driver, long waitTime)</t>
+  </si>
+  <si>
+    <t>Method to wait for all elements loaded in the DOM of web application based on given wait time.</t>
+  </si>
+  <si>
+    <t>waitForAllElementsLoaded(WebDriver driver)</t>
+  </si>
+  <si>
+    <t>Method to wait for all elements loaded in the DOM of web application.</t>
   </si>
 </sst>
 </file>
@@ -3858,7 +3876,7 @@
   <dimension ref="C2:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3887,7 +3905,7 @@
         <v>263</v>
       </c>
       <c r="D5" s="23">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,7 +3961,7 @@
         <v>208</v>
       </c>
       <c r="D12" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3976,7 +3994,7 @@
       </c>
       <c r="D16" s="20">
         <f>SUM(D4:D15)</f>
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4004,11 +4022,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,13 +4185,13 @@
         <v>208</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>224</v>
+        <v>776</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -4181,10 +4199,10 @@
         <v>208</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4195,10 +4213,10 @@
         <v>208</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4209,10 +4227,10 @@
         <v>208</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4223,10 +4241,10 @@
         <v>208</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4237,23 +4255,37 @@
         <v>208</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
+    <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C18" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D18" s="25" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6924,11 +6956,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7044,25 +7076,25 @@
       <c r="B8" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>266</v>
+      <c r="C8" s="16" t="s">
+        <v>778</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>267</v>
+      <c r="C9" s="16" t="s">
+        <v>780</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>62</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7073,10 +7105,10 @@
         <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,13 +7119,13 @@
         <v>263</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -7101,10 +7133,10 @@
         <v>263</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,10 +7147,10 @@
         <v>263</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7129,10 +7161,10 @@
         <v>263</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7143,10 +7175,10 @@
         <v>263</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,10 +7189,10 @@
         <v>263</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>293</v>
+        <v>122</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,10 +7203,10 @@
         <v>263</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,10 +7217,10 @@
         <v>263</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,10 +7231,10 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7213,13 +7245,13 @@
         <v>263</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -7227,10 +7259,10 @@
         <v>263</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>273</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,13 +7273,13 @@
         <v>263</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -7255,10 +7287,10 @@
         <v>263</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,10 +7301,10 @@
         <v>263</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7283,10 +7315,10 @@
         <v>263</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,10 +7329,10 @@
         <v>263</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,13 +7343,13 @@
         <v>263</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>27</v>
       </c>
@@ -7325,10 +7357,10 @@
         <v>263</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,10 +7371,10 @@
         <v>263</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7353,10 +7385,10 @@
         <v>263</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,13 +7399,13 @@
         <v>263</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>31</v>
       </c>
@@ -7381,10 +7413,10 @@
         <v>263</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7395,10 +7427,10 @@
         <v>263</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,13 +7441,13 @@
         <v>263</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>34</v>
       </c>
@@ -7423,13 +7455,13 @@
         <v>263</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -7437,10 +7469,10 @@
         <v>263</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7451,10 +7483,10 @@
         <v>263</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7465,10 +7497,10 @@
         <v>263</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7479,13 +7511,13 @@
         <v>263</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>39</v>
       </c>
@@ -7493,10 +7525,10 @@
         <v>263</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7507,10 +7539,10 @@
         <v>263</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -7521,10 +7553,10 @@
         <v>263</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>108</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7535,13 +7567,13 @@
         <v>263</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>43</v>
       </c>
@@ -7549,13 +7581,13 @@
         <v>263</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>44</v>
       </c>
@@ -7563,10 +7595,10 @@
         <v>263</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -7577,13 +7609,13 @@
         <v>263</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
         <v>46</v>
       </c>
@@ -7591,13 +7623,13 @@
         <v>263</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
         <v>47</v>
       </c>
@@ -7605,10 +7637,10 @@
         <v>263</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>126</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7619,13 +7651,13 @@
         <v>263</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
         <v>49</v>
       </c>
@@ -7633,10 +7665,10 @@
         <v>263</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7647,10 +7679,10 @@
         <v>263</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -7661,10 +7693,10 @@
         <v>263</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7675,10 +7707,10 @@
         <v>263</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,13 +7721,13 @@
         <v>263</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>54</v>
       </c>
@@ -7703,10 +7735,10 @@
         <v>263</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>336</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -7717,10 +7749,10 @@
         <v>263</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -7731,10 +7763,10 @@
         <v>263</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -7745,10 +7777,10 @@
         <v>263</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -7759,10 +7791,10 @@
         <v>263</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>29</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -7773,10 +7805,10 @@
         <v>263</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -7787,10 +7819,10 @@
         <v>263</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,10 +7833,10 @@
         <v>263</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -7815,10 +7847,10 @@
         <v>263</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -7829,10 +7861,10 @@
         <v>263</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -7843,10 +7875,10 @@
         <v>263</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -7857,13 +7889,13 @@
         <v>263</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
         <v>66</v>
       </c>
@@ -7871,23 +7903,51 @@
         <v>263</v>
       </c>
       <c r="C67" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D69" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32">
-        <v>67</v>
-      </c>
-      <c r="B68" s="26" t="s">
+    <row r="70" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="32">
+        <v>69</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>129</v>
       </c>
     </row>
